--- a/biology/Médecine/OsiriX/OsiriX.xlsx
+++ b/biology/Médecine/OsiriX/OsiriX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">OsiriX est un logiciel commercial d'imagerie médicale, permettant de visualiser des fichiers au format DICOM.
 </t>
@@ -511,7 +523,9 @@
           <t>Le produit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Un logiciel permettant de visualiser en 3 dimensions les données d'imagerie médicale sur des MacIntosh.
 OsiriX est capable de recevoir des images transférées suivant le protocole de communication DICOM depuis n'importe quels PACS ou modalité d'imagerie médicale.
@@ -546,9 +560,11 @@
           <t>Les auteurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le docteur Antoine Rosset (1972), celui qui a programmé et qui a obtenu un Apple Design Award en juin 2005. Il est actuellement médecin radiologue à l'Hôpital de LaTour[3], à Genève.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le docteur Antoine Rosset (1972), celui qui a programmé et qui a obtenu un Apple Design Award en juin 2005. Il est actuellement médecin radiologue à l'Hôpital de LaTour, à Genève.
 Joris Heuberger (1980), mathématicien/informaticien, programmeur d'OsiriX depuis mars 2005 (UCLA/HUG)</t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le projet démarre en novembre 2003 et une première version est rendue publique en avril 2004.
 À l'occasion de la Apple Worldwide Developers Conference de juin 2005, OsiriX est récompensé dans les catégories Best Use of Open Source et Best Mac OS X Scientific Computing Solution.
